--- a/biology/Zoologie/Alces_americanus/Alces_americanus.xlsx
+++ b/biology/Zoologie/Alces_americanus/Alces_americanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alces americanus, aussi connu sous le nom d'orignal, est une espèce de mammifères de la famille des Cervidae. Il s'agit du cousin nord-américain de l'élan européen.
-Le genre Alces a longtemps été considéré comme étant monotypique, mais des études récentes tendent à montrer que les populations d'Amérique du Nord et d'Eurasie constituent bien deux espèces distinctes, Alces americanus et Alces alces[4].
+Le genre Alces a longtemps été considéré comme étant monotypique, mais des études récentes tendent à montrer que les populations d'Amérique du Nord et d'Eurasie constituent bien deux espèces distinctes, Alces americanus et Alces alces.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 mai 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 mai 2016) :
 sous-espèce Alces americanus americanus (Clinton, 1822)
 sous-espèce Alces americanus andersoni Peterson, 1950
 sous-espèce Alces americanus buturlini Chernyavsky &amp; Zhelesnov, 1982
@@ -522,10 +536,10 @@
 sous-espèce Alces americanus gigas Miller, 1899
 sous-espèce Alces americanus pfizenmayeri Zukowsky, 1910
 sous-espèce Alces americanus shirasi Nelson, 1914
-Selon Catalogue of Life                                   (27 mai 2016)[5] :
+Selon Catalogue of Life                                   (27 mai 2016) :
 sous-espèce Alces americanus americanus (Clinton, 1822)
 sous-espèce Alces americanus cameloides (Milne-Edwards, 1867)
-Selon Mammal Species of the World (version 3, 2005)  (27 mai 2016)[6] :
+Selon Mammal Species of the World (version 3, 2005)  (27 mai 2016) :
 sous-espèce Alces americanus americanus
 sous-espèce Alces americanus cameloides</t>
         </is>
@@ -555,9 +569,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme orignal est issu du mot basque oreinak, pluriel d’orein, qui se prononce [oɾejɲak] et signifie « les cervidés », « les rennes » ou « les caribous ». Samuel de Champlain le nommait orignac[7], car aux premières années des colonies, les colons français l’auraient appris des Basques qui venaient régulièrement pêcher la morue et la baleine sur les côtes du Labrador et les abords du fleuve Saint-Laurent. La finale -ac a fait place à -al, plus usuelle en français pour désigner un animal : cheval, chacal, etc.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme orignal est issu du mot basque oreinak, pluriel d’orein, qui se prononce [oɾejɲak] et signifie « les cervidés », « les rennes » ou « les caribous ». Samuel de Champlain le nommait orignac, car aux premières années des colonies, les colons français l’auraient appris des Basques qui venaient régulièrement pêcher la morue et la baleine sur les côtes du Labrador et les abords du fleuve Saint-Laurent. La finale -ac a fait place à -al, plus usuelle en français pour désigner un animal : cheval, chacal, etc.
 			Un mâle et une femelle en Alaska.
 			Orignal femelle dans la rivière Jacques-Cartier, parc national de la Jacques-Cartier (Québec, Canada).
 			Orignal couché dans le parc national de Yellowstone aux États-Unis.
